--- a/ROC Curve.xlsx
+++ b/ROC Curve.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -104,14 +104,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1600"/>
               <a:t>ROC Curve</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
               <a:t> </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1600"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -129,7 +129,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1442,11 +1442,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2028967760"/>
-        <c:axId val="-2032043040"/>
+        <c:axId val="-2055297856"/>
+        <c:axId val="-2061042416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2028967760"/>
+        <c:axId val="-2055297856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1474,7 +1474,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1487,7 +1487,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100" b="1"/>
+                  <a:rPr lang="en-US" sz="1200" b="1"/>
                   <a:t>False Positive Rate</a:t>
                 </a:r>
               </a:p>
@@ -1507,7 +1507,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1560,12 +1560,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2032043040"/>
+        <c:crossAx val="-2061042416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2032043040"/>
+        <c:axId val="-2061042416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1593,7 +1593,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1606,7 +1606,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1050" b="1"/>
+                  <a:rPr lang="en-US" sz="1100" b="1"/>
                   <a:t>True Positive Rate</a:t>
                 </a:r>
               </a:p>
@@ -1626,7 +1626,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1679,7 +1679,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2028967760"/>
+        <c:crossAx val="-2055297856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2294,10 +2294,10 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2584,7 +2584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B208"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
